--- a/data/trans_dic/IP19C02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,19</t>
+          <t>0,0; 11,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,03</t>
+          <t>0,0; 10,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,87; 53,14</t>
+          <t>24,26; 55,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,5; 66,65</t>
+          <t>30,9; 67,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 22,93</t>
+          <t>6,98; 24,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,55</t>
+          <t>1,25; 10,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 42,7</t>
+          <t>14,17; 43,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,15; 59,33</t>
+          <t>25,26; 62,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 14,52</t>
+          <t>5,06; 14,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,75</t>
+          <t>1,5; 8,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,59; 44,24</t>
+          <t>22,69; 44,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,69; 57,52</t>
+          <t>30,46; 57,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,5</t>
+          <t>4,26; 9,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,94</t>
+          <t>3,75; 9,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,28; 24,8</t>
+          <t>16,38; 24,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,18; 40,86</t>
+          <t>30,2; 41,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,56</t>
+          <t>4,14; 9,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,32</t>
+          <t>3,72; 9,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 22,9</t>
+          <t>14,91; 22,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,64; 37,66</t>
+          <t>27,63; 37,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,54</t>
+          <t>4,96; 8,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,1</t>
+          <t>4,39; 7,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 22,62</t>
+          <t>16,6; 22,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,25; 38,01</t>
+          <t>30,34; 38,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 15,81</t>
+          <t>4,59; 15,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 15,31</t>
+          <t>4,75; 16,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 18,24</t>
+          <t>7,1; 18,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,56; 34,72</t>
+          <t>20,43; 33,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 11,77</t>
+          <t>2,08; 11,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,48</t>
+          <t>2,46; 11,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 24,92</t>
+          <t>11,3; 24,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,97; 34,09</t>
+          <t>19,16; 33,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,63</t>
+          <t>4,59; 11,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 11,61</t>
+          <t>4,48; 11,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 19,78</t>
+          <t>10,84; 19,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,84; 32,41</t>
+          <t>21,58; 31,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,82</t>
+          <t>4,96; 9,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,86</t>
+          <t>4,4; 8,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 23,32</t>
+          <t>16,07; 23,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,47; 38,08</t>
+          <t>29,64; 38,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,96</t>
+          <t>5,33; 10,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,05</t>
+          <t>4,11; 8,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 22,56</t>
+          <t>15,38; 22,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,38; 36,06</t>
+          <t>27,42; 35,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,63</t>
+          <t>5,61; 8,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,78</t>
+          <t>4,71; 7,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 21,55</t>
+          <t>16,85; 21,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,89; 36,03</t>
+          <t>29,58; 35,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26,45%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39,46%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>3,16%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>3,43%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>37,73%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>48,88%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,96%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>26,45%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,19%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
+          <t>42,38%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,17</t>
+          <t>7,23; 23,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,28</t>
+          <t>1,23; 10,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,26; 55,64</t>
+          <t>13,08; 44,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,9; 67,59</t>
+          <t>22,54; 59,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 24,18</t>
+          <t>0,0; 9,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 10,75</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 43,59</t>
+          <t>24,32; 54,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,26; 62,31</t>
+          <t>28,47; 64,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 14,7</t>
+          <t>4,94; 14,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,61</t>
+          <t>1,43; 9,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,69; 44,83</t>
+          <t>22,53; 44,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,46; 57,46</t>
+          <t>29,27; 56,82</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18,81%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,51%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>6,02%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>20,12%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>35,41%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18,81%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>31,89%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,32</t>
+          <t>4,18; 9,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,11</t>
+          <t>3,61; 9,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 24,86</t>
+          <t>15,15; 23,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,2; 41,37</t>
+          <t>24,82; 34,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,35</t>
+          <t>4,06; 9,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,19</t>
+          <t>3,85; 9,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,91; 22,81</t>
+          <t>15,9; 24,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,63; 37,69</t>
+          <t>27,51; 38,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,67</t>
+          <t>4,85; 8,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,93</t>
+          <t>4,44; 8,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,6; 22,43</t>
+          <t>16,74; 22,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,34; 38,07</t>
+          <t>28,15; 35,55</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>9,27%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>8,82%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>12,07%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,79%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,89%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,53%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>24,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,8</t>
+          <t>2,44; 12,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 16,01</t>
+          <t>2,43; 11,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 18,62</t>
+          <t>11,52; 25,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,43; 33,57</t>
+          <t>18,94; 32,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,3</t>
+          <t>4,67; 16,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,01</t>
+          <t>4,83; 16,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 24,64</t>
+          <t>7,08; 19,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 33,44</t>
+          <t>18,3; 32,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 11,51</t>
+          <t>4,26; 11,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,23</t>
+          <t>4,54; 11,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 19,91</t>
+          <t>10,63; 19,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,58; 31,48</t>
+          <t>20,24; 29,9</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29,71%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,67%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>6,34%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>19,55%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>33,71%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>18,97%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>30,69%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,03</t>
+          <t>5,47; 9,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,77</t>
+          <t>4,02; 8,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 23,15</t>
+          <t>15,77; 22,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,64; 38,49</t>
+          <t>25,58; 33,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,09</t>
+          <t>4,79; 9,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,25</t>
+          <t>4,56; 8,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,38; 22,15</t>
+          <t>15,92; 23,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,42; 35,44</t>
+          <t>27,22; 35,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,62</t>
+          <t>5,61; 8,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,68</t>
+          <t>4,69; 7,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,92</t>
+          <t>16,83; 21,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,58; 35,77</t>
+          <t>27,74; 33,94</t>
         </is>
       </c>
     </row>
